--- a/SALT/UCl3_Figure_data.xlsx
+++ b/SALT/UCl3_Figure_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/SALT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02D3C211-665B-704D-9750-E01783BB25B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9718C9-EFEE-DE4C-9CA0-6D52BC7988E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10360" yWindow="2740" windowWidth="26600" windowHeight="17120" xr2:uid="{F200AE28-F01C-1E4C-83A9-345B34AA3221}"/>
+    <workbookView xWindow="22720" yWindow="5700" windowWidth="26600" windowHeight="17120" xr2:uid="{F200AE28-F01C-1E4C-83A9-345B34AA3221}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <definedName name="gr_average_5" localSheetId="0">Sheet1!$A$10:$D$209</definedName>
     <definedName name="gr_average_6" localSheetId="0">Sheet1!$M$9:$P$208</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25431,23 +25431,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="gr_average_18" connectionId="5" xr16:uid="{526525DD-D859-0A44-869D-BF103530866F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="gr_average_6" connectionId="7" xr16:uid="{F3F850C2-0CD3-6149-833E-6D82965C646A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="gr_average_15" connectionId="1" xr16:uid="{69B7BF40-2DDC-6746-9B59-73A25B67AD55}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="gr_average_5" connectionId="2" xr16:uid="{03B457E5-E35F-0C4A-98BA-9D83A1123035}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="gr_average_5" connectionId="2" xr16:uid="{03B457E5-E35F-0C4A-98BA-9D83A1123035}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="gr_average_17" connectionId="4" xr16:uid="{E5F62F0C-F116-E34B-B566-D1A2F5501D76}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="gr_average_17" connectionId="4" xr16:uid="{E5F62F0C-F116-E34B-B566-D1A2F5501D76}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="gr_average_16" connectionId="3" xr16:uid="{38E8817A-0102-7D4B-8977-7895270FABA1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="gr_average_16" connectionId="3" xr16:uid="{38E8817A-0102-7D4B-8977-7895270FABA1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="gr_average_18" connectionId="5" xr16:uid="{526525DD-D859-0A44-869D-BF103530866F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25455,11 +25455,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="gr_average_19" connectionId="6" xr16:uid="{1B53353F-9F68-2647-90B0-F8E2BC4A8664}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="gr_average_15" connectionId="1" xr16:uid="{69B7BF40-2DDC-6746-9B59-73A25B67AD55}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="gr_average_6" connectionId="7" xr16:uid="{F3F850C2-0CD3-6149-833E-6D82965C646A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="gr_average_19" connectionId="6" xr16:uid="{1B53353F-9F68-2647-90B0-F8E2BC4A8664}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25761,8 +25761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC153B2-087D-FA46-8B58-AFDC059788E4}">
   <dimension ref="A1:BF675"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="C218" sqref="C218"/>
+    <sheetView tabSelected="1" topLeftCell="A278" workbookViewId="0">
+      <selection activeCell="H304" sqref="H304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33845,6 +33845,10 @@
       <c r="B245">
         <v>-200.44034761032046</v>
       </c>
+      <c r="C245">
+        <f>B245/32</f>
+        <v>-6.2637608628225143</v>
+      </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246">
@@ -33853,6 +33857,10 @@
       <c r="B246">
         <v>-198.16007274568938</v>
       </c>
+      <c r="C246">
+        <f t="shared" ref="C246:C249" si="0">B246/32</f>
+        <v>-6.192502273302793</v>
+      </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247">
@@ -33861,6 +33869,10 @@
       <c r="B247">
         <v>-194.77339063061015</v>
       </c>
+      <c r="C247">
+        <f t="shared" si="0"/>
+        <v>-6.0866684572065672</v>
+      </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248">
@@ -33869,6 +33881,10 @@
       <c r="B248">
         <v>-192.48191868608794</v>
       </c>
+      <c r="C248">
+        <f t="shared" si="0"/>
+        <v>-6.015059958940248</v>
+      </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249">
@@ -33877,6 +33893,10 @@
       <c r="B249">
         <v>-188.97211380208813</v>
       </c>
+      <c r="C249">
+        <f t="shared" si="0"/>
+        <v>-5.9053785563152541</v>
+      </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
@@ -34113,7 +34133,7 @@
         <v>800</v>
       </c>
       <c r="E279">
-        <f t="shared" ref="E279:E280" si="0">4.84-0.007943*(D279-837-273.15)</f>
+        <f t="shared" ref="E279:E280" si="1">4.84-0.007943*(D279-837-273.15)</f>
         <v>7.3035214499999999</v>
       </c>
       <c r="H279">
@@ -34134,7 +34154,7 @@
         <v>900</v>
       </c>
       <c r="E280">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.5092214500000001</v>
       </c>
       <c r="H280">
@@ -34176,7 +34196,7 @@
         <v>1100</v>
       </c>
       <c r="E282">
-        <f t="shared" ref="E282:E288" si="1">4.84-0.007943*(D282-837-273.15)</f>
+        <f t="shared" ref="E282:E288" si="2">4.84-0.007943*(D282-837-273.15)</f>
         <v>4.9206214499999996</v>
       </c>
       <c r="H282">
@@ -34191,7 +34211,7 @@
         <v>1150</v>
       </c>
       <c r="E283">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5234714499999997</v>
       </c>
       <c r="H283">
@@ -34206,7 +34226,7 @@
         <v>1200</v>
       </c>
       <c r="E284">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.1263214499999998</v>
       </c>
       <c r="H284">
@@ -34221,7 +34241,7 @@
         <v>1250</v>
       </c>
       <c r="E285">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.7291714499999999</v>
       </c>
       <c r="H285">
@@ -34236,7 +34256,7 @@
         <v>1300</v>
       </c>
       <c r="E286">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3320214499999996</v>
       </c>
       <c r="H286">
@@ -34251,7 +34271,7 @@
         <v>1500</v>
       </c>
       <c r="E287">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7434214499999996</v>
       </c>
       <c r="H287">
@@ -34266,7 +34286,7 @@
         <v>1750</v>
       </c>
       <c r="E288">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.24232855000000075</v>
       </c>
       <c r="H288">
@@ -34937,7 +34957,7 @@
         <v>0.96597098999999997</v>
       </c>
       <c r="K345">
-        <f t="shared" ref="K345:K350" si="2">I345/J345</f>
+        <f t="shared" ref="K345:K350" si="3">I345/J345</f>
         <v>0.99187075351850373</v>
       </c>
     </row>
@@ -34964,7 +34984,7 @@
         <v>0.96584113000000005</v>
       </c>
       <c r="K346">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.99006590895248203</v>
       </c>
     </row>
@@ -34991,7 +35011,7 @@
         <v>0.97116621999999997</v>
       </c>
       <c r="K347">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.99198033226938165</v>
       </c>
     </row>
@@ -35018,7 +35038,7 @@
         <v>0.99170835999999996</v>
       </c>
       <c r="K348">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.98918623310777143</v>
       </c>
     </row>
@@ -35045,7 +35065,7 @@
         <v>1.00172751</v>
       </c>
       <c r="K349">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.98777319148794518</v>
       </c>
     </row>
@@ -35060,7 +35080,7 @@
         <v>1</v>
       </c>
       <c r="K350">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
